--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>transactionid</t>
+          <t>Customer ID</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Customer ID</t>
+          <t>accountid</t>
         </is>
       </c>
     </row>
@@ -489,233 +489,485 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AccountNumber</t>
+          <t>accountid</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>ACCOUNTNUMBER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>amount_paid</t>
+          <t>Account Number</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>ACCOUNTNUMBER</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amount Received</t>
+          <t>AccountNumber</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>AGENT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>AGENT</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BANK/PLACEMENT</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>assigned_agency</t>
+          <t>Amount Received</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CF AMOUNT</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cf_amount</t>
+          <t>Amount</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CF RATE</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cf_rate</t>
+          <t>amount_paid</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CF TIER</t>
+          <t>BANK/PLACEMENT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cf_tier</t>
+          <t>assigned_agency</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ch code</t>
+          <t>BANK/PLACEMENT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chCode</t>
+          <t>Bank</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>CF AMOUNT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>cf_amount</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>CF RATE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Payment Date</t>
+          <t>cf_rate</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>CF RATE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>transaction_date</t>
+          <t>CF RATE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>CF TIER</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>client_name</t>
+          <t>cf_tier</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>CURRENCY</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Customer_Name</t>
+          <t>CURRENCY</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>CURRENCY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>name_client</t>
+          <t>CURRENCY</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Ch code</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>chName</t>
+          <t>Ch code</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Ch code</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Customer Name</t>
+          <t>chCode</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>namememe</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>transaction_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Payment Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FINAL AMOUNT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FINAL AMOUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Final Agent</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Final Agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Final SS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Final SS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Final SSS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Final SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Customer Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>client_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>name_client</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>chName</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Customer_Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Account Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NEGO BUDDY</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NEGO BUDDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>REF CODE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>REF CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Placement</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TAGGING AGENT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TAGGING AGENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>UNIT CODE</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UNIT CODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UNIT CODE</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>UNIT CODE</t>
         </is>

--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,310 +448,298 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REF CODE</t>
+          <t>Prefix</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REF CODE</t>
+          <t>Prefix, Prefix</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prefix</t>
+          <t>BANK/PLACEMENT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prefix, Prefix</t>
+          <t>assigned_agency, Bank</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BANK/PLACEMENT</t>
+          <t>CH CODE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>assigned_agency, Bank</t>
+          <t>chCode, ch_code, Ch code, chcode</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CH CODE</t>
+          <t>AGENT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chCode, ch_code, Ch code, chcode</t>
+          <t>AGENT, Agent, agent</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGENT</t>
+          <t>TAGGING AGENT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AGENT, Agent, agent</t>
+          <t>TAGGING AGENT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TAGGING AGENT</t>
+          <t>Final Agent</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAGGING AGENT</t>
+          <t>Final Agent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Final Agent</t>
+          <t>Final SS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Final Agent</t>
+          <t>Final SS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Final SS</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Final SS</t>
+          <t>Placement, STATUS, Status</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>NEGO BUDDY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Placement, STATUS, Status</t>
+          <t>NEGO BUDDY, Negotiation Buddy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NEGO BUDDY</t>
+          <t>Final SSS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NEGO BUDDY, Negotiation Buddy</t>
+          <t>Final SSS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>name_client, Customer_Name, Customer Name, Account Name, client_name, chName</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>ACCOUNTNUMBER</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>name_client, Customer_Name, Customer Name, Account Name, client_name, chName</t>
+          <t>account_num, AccountNumber, Account Number, accountid, Customer ID, ACCOUNTNUMBER</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACCOUNTNUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>account_num, AccountNumber, Account Number, accountid, Customer ID, ACCOUNTNUMBER</t>
+          <t>Payment Date, transaction_date, Date</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Payment Date, transaction_date, Date</t>
+          <t>Amount Received, cus_amount, Amount, amount_paid, AM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>CURRENCY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Amount Received, cus_amount, Amount, amount_paid, AM</t>
+          <t>CURRENCY</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>UNIT CODE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>UNIT CODE, UNITCODE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UNIT CODE</t>
+          <t>PLACEMENT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UNIT CODE, UNITCODE</t>
+          <t>PLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>FINAL PLACEMENT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>FINAL PLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>CF RATE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>CF RATE, cf_rate</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CF RATE</t>
+          <t>CF AMOUNT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CF RATE, cf_rate</t>
+          <t>cf_amount</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CF AMOUNT</t>
+          <t>TYPE OF PAYMENT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>cf_amount</t>
+          <t>TYPE OF PAYMENT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>PAYMENT SOURCE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>PAYMENT SOURCE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PAYMENT SOURCE</t>
+          <t>CF TIER</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>PAYMENT SOURCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CF TIER</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
         <is>
           <t>cf_tier</t>
         </is>

--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,18 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>QUERY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>query, qr, que</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prefix, Prefix</t>
+          <t>Prefix, Prefix, PREFIX, prefix</t>
         </is>
       </c>
     </row>
@@ -477,283 +477,259 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chCode, ch_code, Ch code, chcode</t>
+          <t>chCode, ch_code, Ch code, chcode, Chcode</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGENT</t>
+          <t>CAMPAIGN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AGENT, Agent, agent</t>
+          <t>campaign, Campaign, Campaigns, CAMPAIGN</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TAGGING AGENT</t>
+          <t>AGENT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAGGING AGENT</t>
+          <t>AGENT, Agent, agent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Final Agent</t>
+          <t>TAGGING AGENT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Final Agent</t>
+          <t>TAGGING AGENT, Tagged_Agent</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Final SS</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Final SS</t>
+          <t>STATUS, Status</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>NEGO BUDDY</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Placement, STATUS, Status</t>
+          <t>NEGO BUDDY, Negotiation Buddy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NEGO BUDDY</t>
+          <t>Final SSS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NEGO BUDDY, Negotiation Buddy</t>
+          <t>Final SSS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>name_client, Customer_Name, Customer Name, Account Name, client_name, chName, NAME</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>ACCOUNTNUMBER</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>name_client, Customer_Name, Customer Name, Account Name, client_name, chName</t>
+          <t>account_num, AccountNumber, Account Number, accountid, Customer ID, ACCOUNTNUMBER</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACCOUNTNUMBER</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>account_num, AccountNumber, Account Number, accountid, Customer ID, ACCOUNTNUMBER</t>
+          <t>Payment Date, transaction_date, Date</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Payment Date, transaction_date, Date</t>
+          <t>Amount Received, cus_amount, Amount, amount_paid, AM, Payment Amount</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>CURRENCY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Amount Received, cus_amount, Amount, amount_paid, AM</t>
+          <t>CURRENCY</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>Customer Block Code</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>UNIT CODE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>UNIT CODE, UNITCODE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNIT CODE</t>
+          <t>PLACEMENT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UNIT CODE, UNITCODE</t>
+          <t>PLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>FINAL PLACEMENT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>FINAL PLACEMENT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>CF RATE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>CF RATE, cf_rate</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CF RATE</t>
+          <t>CF AMOUNT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CF RATE, cf_rate</t>
+          <t>cf_amount, CF AM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CF AMOUNT</t>
+          <t>TYPE OF PAYMENT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cf_amount</t>
+          <t>TYPE OF PAYMENT</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>PAYMENT SOURCE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>PAYMENT SOURCE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PAYMENT SOURCE</t>
+          <t>CF TIER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PAYMENT SOURCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CF TIER</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>cf_tier</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>QUERY</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>query, qr, que</t>
         </is>
       </c>
     </row>

--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prefix</t>
+          <t>AUTOID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prefix, Prefix, PREFIX, prefix</t>
+          <t>AUTOID</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANK/PLACEMENT</t>
+          <t>BANK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>assigned_agency, Bank</t>
+          <t>BANK</t>
         </is>
       </c>
     </row>
@@ -477,31 +477,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chCode, ch_code, Ch code, chcode, Chcode</t>
+          <t>CHCODE, CH CODE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAMPAIGN</t>
+          <t>AGENT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>campaign, Campaign, Campaigns, CAMPAIGN</t>
+          <t>AGENT</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AGENT</t>
+          <t>FINAL AGENT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AGENT, Agent, agent</t>
+          <t>FINAL AGENT</t>
         </is>
       </c>
     </row>
@@ -513,223 +513,223 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAGGING AGENT, Tagged_Agent</t>
+          <t>TAGGING AGENT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>AGENT NAME</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STATUS, Status</t>
+          <t>AGENT NAME</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NEGO BUDDY</t>
+          <t>ACCOUNT NUMBER</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEGO BUDDY, Negotiation Buddy</t>
+          <t>ACCOUNT NUMBER</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Final SSS</t>
+          <t>NAME</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>name_client, Customer_Name, Customer Name, Account Name, client_name, chName, NAME</t>
+          <t>DATE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACCOUNTNUMBER</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>account_num, AccountNumber, Account Number, accountid, Customer ID, ACCOUNTNUMBER</t>
+          <t>AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>CURRENCY</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Payment Date, transaction_date, Date</t>
+          <t>CURRENCY</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amount Received, cus_amount, Amount, amount_paid, AM, Payment Amount</t>
+          <t>FINAL AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CURRENCY</t>
+          <t>LEVEL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FINAL AMOUNT</t>
+          <t>CF RATE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>CF AMOUNT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Customer Block Code</t>
+          <t>CF AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UNIT CODE</t>
+          <t>CF RATE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNIT CODE, UNITCODE</t>
+          <t>CF RATE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>VF RATE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLACEMENT</t>
+          <t>VF RATE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>VF AMOUNT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FINAL PLACEMENT</t>
+          <t>VF AMOUNT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CF RATE</t>
+          <t>OB</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CF RATE, cf_rate</t>
+          <t>OB</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CF AMOUNT</t>
+          <t>PRINCIPAL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cf_amount, CF AM</t>
+          <t>PRINCIPAL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>ENDO DATE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TYPE OF PAYMENT</t>
+          <t>ENDO DATE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PAYMENT SOURCE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PAYMENT SOURCE</t>
+          <t>STATUS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CF TIER</t>
+          <t>COMMENT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>cf_tier</t>
+          <t>COMMENT</t>
         </is>
       </c>
     </row>

--- a/header_mappings.xlsx
+++ b/header_mappings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,6 +733,18 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
